--- a/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.96766576155647</v>
+        <v>90.04220008922819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6344726823063729</v>
+        <v>0.5787058372342363</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.06721346702646</v>
+        <v>89.01072439798827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5604083563620339</v>
+        <v>0.6441228646897892</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.97322820973262</v>
+        <v>88.12252829873002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6592886896663478</v>
+        <v>0.6467002091215706</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.08507816901444</v>
+        <v>87.02584588055183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6392922524123272</v>
+        <v>0.6573498839871553</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.89800408777883</v>
+        <v>85.93471848447196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6505418031916238</v>
+        <v>0.703008699350374</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.03046824735293</v>
+        <v>84.98180625248315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6413365866704543</v>
+        <v>0.7081344563185347</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.00434792140945</v>
+        <v>83.91072208260657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7494190180516109</v>
+        <v>0.632517089836536</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.06701779937792</v>
+        <v>82.98755137180693</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6936007088506795</v>
+        <v>0.7875674567980928</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.15572959086752</v>
+        <v>81.89317801336428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7031815978339856</v>
+        <v>0.7436557656325264</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.08834286361532</v>
+        <v>80.96750818874563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6325424512941358</v>
+        <v>0.754043959356685</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.97921088337228</v>
+        <v>80.08123143718589</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7624811779184069</v>
+        <v>0.7310028708529024</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.74889530719996</v>
+        <v>79.02127925642557</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7794446649966192</v>
+        <v>0.7797558011786563</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.99847369041063</v>
+        <v>77.96080223255176</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7745303760229465</v>
+        <v>0.7544448504856123</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.98651794885413</v>
+        <v>77.03262499932885</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7946860864478659</v>
+        <v>0.7600038045989204</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.98897229962363</v>
+        <v>76.01031550993474</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7280152359120473</v>
+        <v>0.791785994208505</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.05676778622329</v>
+        <v>75.03648785403145</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8493336639394831</v>
+        <v>0.8498244727820015</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.87582949706096</v>
+        <v>73.95604795032014</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8147344434437428</v>
+        <v>0.8503846723765369</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.85840399689044</v>
+        <v>72.95331879418731</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8319956308381063</v>
+        <v>0.7701939266739314</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.00097728504599</v>
+        <v>72.123192163113</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6956424155760504</v>
+        <v>0.839453099909297</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.98747808021045</v>
+        <v>70.8251692275316</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8322768896944818</v>
+        <v>0.8337340623003565</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.88784454198819</v>
+        <v>69.89674508612511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8834033519334364</v>
+        <v>0.8021957413762556</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.01043737804578</v>
+        <v>68.94960378376577</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9449158984285508</v>
+        <v>0.897728806347366</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.8778953565083</v>
+        <v>68.02019778311195</v>
       </c>
       <c r="D24" t="n">
-        <v>0.947276913598217</v>
+        <v>0.8470728796175312</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.18450836961239</v>
+        <v>67.08600830370625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9566099859282017</v>
+        <v>0.9835987878806054</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.95925604837838</v>
+        <v>65.99809314916166</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8663984188671349</v>
+        <v>0.9285182294593864</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.97508590199034</v>
+        <v>65.09836580307723</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8928480218270057</v>
+        <v>1.000324538214378</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.00236501549747</v>
+        <v>63.96182205603993</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9893092491217081</v>
+        <v>1.042005600499334</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.07111969117386</v>
+        <v>63.01596096446817</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9166823509335587</v>
+        <v>0.842369163800648</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.9873488593493</v>
+        <v>61.92904453593571</v>
       </c>
       <c r="D30" t="n">
-        <v>1.066645006820281</v>
+        <v>1.001237449262642</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.08200409351532</v>
+        <v>61.10443976483639</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9619827092836408</v>
+        <v>0.9612394044919848</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.05881106537045</v>
+        <v>59.9966238013477</v>
       </c>
       <c r="D32" t="n">
-        <v>1.006012951640705</v>
+        <v>1.030617160116434</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.01381818889473</v>
+        <v>58.86585281458436</v>
       </c>
       <c r="D33" t="n">
-        <v>1.035846361987156</v>
+        <v>1.177173553655243</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.94340631791169</v>
+        <v>57.87187379681834</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8560736681828836</v>
+        <v>0.9211032202750628</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.02399616397634</v>
+        <v>56.99062994546758</v>
       </c>
       <c r="D35" t="n">
-        <v>1.026393162341347</v>
+        <v>1.00677842309822</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.15604624399521</v>
+        <v>56.08968069346107</v>
       </c>
       <c r="D36" t="n">
-        <v>1.12126276630119</v>
+        <v>0.9951136513079999</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.98698637495435</v>
+        <v>54.98400722470345</v>
       </c>
       <c r="D37" t="n">
-        <v>1.018348487480346</v>
+        <v>1.212692982121179</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.87261593923715</v>
+        <v>53.93590732590091</v>
       </c>
       <c r="D38" t="n">
-        <v>1.055108675760178</v>
+        <v>0.9964252773568316</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.00652047264297</v>
+        <v>53.03714388081046</v>
       </c>
       <c r="D39" t="n">
-        <v>1.181514393491783</v>
+        <v>1.066409018097599</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.90194645587651</v>
+        <v>51.93457615332762</v>
       </c>
       <c r="D40" t="n">
-        <v>1.210639324777506</v>
+        <v>1.05752345715975</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.05614150091423</v>
+        <v>50.98051020592815</v>
       </c>
       <c r="D41" t="n">
-        <v>1.252269208086245</v>
+        <v>1.269651254844817</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.75462488082226</v>
+        <v>50.13650677947664</v>
       </c>
       <c r="D42" t="n">
-        <v>1.168739800828603</v>
+        <v>1.273255823303124</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.85356804163391</v>
+        <v>48.95438274015604</v>
       </c>
       <c r="D43" t="n">
-        <v>1.135055058501345</v>
+        <v>1.239507234638324</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.11030321332834</v>
+        <v>47.93249246579843</v>
       </c>
       <c r="D44" t="n">
-        <v>1.085067878060521</v>
+        <v>1.202486908568344</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.84136221264075</v>
+        <v>46.97714349680106</v>
       </c>
       <c r="D45" t="n">
-        <v>1.26902985194239</v>
+        <v>1.210519083989615</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.00007795380306</v>
+        <v>46.08801659525287</v>
       </c>
       <c r="D46" t="n">
-        <v>1.215608826364615</v>
+        <v>1.198160577727389</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.20295002993348</v>
+        <v>44.85167746730842</v>
       </c>
       <c r="D47" t="n">
-        <v>1.158956562559335</v>
+        <v>1.27629640844682</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.02082623823146</v>
+        <v>44.24711764333662</v>
       </c>
       <c r="D48" t="n">
-        <v>1.107052677645447</v>
+        <v>1.352439174402001</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.01648034186656</v>
+        <v>43.07511608511044</v>
       </c>
       <c r="D49" t="n">
-        <v>1.315820774800292</v>
+        <v>1.05205986547319</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.03151748408387</v>
+        <v>41.74455804277913</v>
       </c>
       <c r="D50" t="n">
-        <v>1.236256428407527</v>
+        <v>1.404999807658211</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.08335971987297</v>
+        <v>41.05508146109074</v>
       </c>
       <c r="D51" t="n">
-        <v>1.231604106621398</v>
+        <v>1.193973479488903</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.84109724876777</v>
+        <v>39.78506439783126</v>
       </c>
       <c r="D52" t="n">
-        <v>1.178701167131538</v>
+        <v>1.210571055450456</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.04903934987841</v>
+        <v>38.86735673839283</v>
       </c>
       <c r="D53" t="n">
-        <v>1.144767686236942</v>
+        <v>1.421688024579917</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.78099346945344</v>
+        <v>38.09889466788958</v>
       </c>
       <c r="D54" t="n">
-        <v>1.53481555780889</v>
+        <v>1.193734304668089</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.08705726625871</v>
+        <v>37.06364081728502</v>
       </c>
       <c r="D55" t="n">
-        <v>1.214697165149675</v>
+        <v>1.119571566792251</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.05782703680237</v>
+        <v>36.05772989239891</v>
       </c>
       <c r="D56" t="n">
-        <v>1.382685649973333</v>
+        <v>1.369730385519567</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.86303312126118</v>
+        <v>34.65980113934098</v>
       </c>
       <c r="D57" t="n">
-        <v>1.318907505202435</v>
+        <v>1.074863750609632</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.06943142630563</v>
+        <v>34.00095491601569</v>
       </c>
       <c r="D58" t="n">
-        <v>1.447060636941515</v>
+        <v>1.236131073600322</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.12977387713433</v>
+        <v>33.16454333586148</v>
       </c>
       <c r="D59" t="n">
-        <v>1.374753095789349</v>
+        <v>1.426916489676263</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.975153337926</v>
+        <v>31.75681980277467</v>
       </c>
       <c r="D60" t="n">
-        <v>1.415638408637338</v>
+        <v>1.116891220900857</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.87203986485365</v>
+        <v>30.89453590823797</v>
       </c>
       <c r="D61" t="n">
-        <v>1.235454487291736</v>
+        <v>1.492950576144308</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.99715144751663</v>
+        <v>29.94760890543492</v>
       </c>
       <c r="D62" t="n">
-        <v>1.301251201078932</v>
+        <v>1.493274350059106</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.91185501230175</v>
+        <v>28.94998662747071</v>
       </c>
       <c r="D63" t="n">
-        <v>1.450496389320036</v>
+        <v>1.466779764154459</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.91117903956797</v>
+        <v>27.99843404029312</v>
       </c>
       <c r="D64" t="n">
-        <v>1.144398741603266</v>
+        <v>1.441383196808106</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.69255956923457</v>
+        <v>27.05601701544489</v>
       </c>
       <c r="D65" t="n">
-        <v>1.487291590130303</v>
+        <v>1.404871111161203</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.17951954552593</v>
+        <v>26.06684301901173</v>
       </c>
       <c r="D66" t="n">
-        <v>1.434104128832519</v>
+        <v>1.511191424170233</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.02316945134327</v>
+        <v>24.95110818087302</v>
       </c>
       <c r="D67" t="n">
-        <v>1.494251245496523</v>
+        <v>1.365816651020347</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.81623994452791</v>
+        <v>23.92271444996502</v>
       </c>
       <c r="D68" t="n">
-        <v>1.595561579798069</v>
+        <v>1.678427967212366</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.83650888578872</v>
+        <v>23.05965412195838</v>
       </c>
       <c r="D69" t="n">
-        <v>1.394287551509273</v>
+        <v>1.5989599073365</v>
       </c>
     </row>
   </sheetData>
